--- a/参数表.xlsx
+++ b/参数表.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\python\jupyter-notebook\SampleFilter\20200310dabao_joint\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\python\jupyter-notebook\SampleFilter\20200310dabao_joint\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7EBC46-1D1C-4345-8287-4E9A9686F721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必须填充的" sheetId="1" r:id="rId1"/>
@@ -34,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jzhang</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +409,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -767,29 +768,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="15.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="15.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -853,7 +854,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F3" s="6" t="s">
         <v>61</v>
       </c>
@@ -861,52 +862,52 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" s="6" t="s">
         <v>71</v>
       </c>
@@ -915,18 +916,18 @@
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations xWindow="474" yWindow="284" count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="注意：" prompt="重新选择回归模型后，必须手动选择回归方法。如果未选择方法或者选用了不适当的方法，会采用以下默认方法：_x000a_1. 线性回归: pinv_x000a_2. Logit: newton_x000a_3. Probit: newton" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="注意：" prompt="重新选择回归模型后，必须手动选择回归方法。如果未选择方法或者选用了不适当的方法，会采用以下默认方法：_x000a_1. 线性回归: pinv_x000a_2. Logit: newton_x000a_3. Probit: newton" sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT($D$2)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sheet名在Excel窗口左下角位置，常见的是Sheet1,Sheet2..." sqref="B2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="目前只能处理Excel格式的数据_x000a_需要包含'.xls'或者'.xlsx'这样的后缀名" sqref="A2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="注意" prompt="重新选择回归模型后，必须手动选择回归方法。如果未选择方法或者选用了不适当的方法，会采用以下默认方法：_x000a_1. 线性回归: pinv_x000a_2. Logit: newton_x000a_3. Probit: newton_x000a_目前一次只能处理一个模型。" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sheet名在Excel窗口左下角位置，常见的是Sheet1,Sheet2..." sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="目前只能处理Excel格式的数据_x000a_需要包含'.xls'或者'.xlsx'这样的后缀名" sqref="A2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="注意" prompt="重新选择回归模型后，必须手动选择回归方法。如果未选择方法或者选用了不适当的方法，会采用以下默认方法：_x000a_1. 线性回归: pinv_x000a_2. Logit: newton_x000a_3. Probit: newton_x000a_目前一次只能处理一个模型。" sqref="D2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>回归模型</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数值错误" error="只可以输入整数" prompt="表的标题行从A1开始则不必理会，否则这里需要填写：在表头之上有多少行不是有效的数据。" sqref="C2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="数值错误" error="只可以输入整数" prompt="表的标题行从A1开始则不必理会，否则这里需要填写：在表头之上有多少行不是有效的数据。" sqref="C2" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J30" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>$F$2:$F$2400</formula1>
     </dataValidation>
   </dataValidations>
@@ -936,24 +937,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -979,7 +980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0.05</v>
       </c>
@@ -996,7 +997,7 @@
         <v>10000</v>
       </c>
       <c r="F2" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="5">
         <v>3</v>
@@ -1009,27 +1010,27 @@
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="输入的值不恰当" error="只能输入整数，并且要大于100" sqref="E2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="输入的值不恰当" error="只能输入整数，并且要大于100" sqref="E2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>101</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>C2</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
       <formula2>D2</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"0.1,0.05,0.01,0.001"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"否,是"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1038,38 +1039,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1161,7 +1162,7 @@
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"BFGS,Nelder-Mead,Powell,CG,Newton-CG,L-BFGS-B,TNC,COBYLA,SLSQP,trust-constr,dogleg,trust-ncg,trust-exact,trust-krylov"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1170,19 +1171,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>27</v>
       </c>
